--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col18a1-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col18a1-Ptprs.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.122774</v>
+        <v>24.35712233333334</v>
       </c>
       <c r="H2">
-        <v>33.368322</v>
+        <v>73.07136700000001</v>
       </c>
       <c r="I2">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="J2">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.127188333333334</v>
+        <v>3.556762333333333</v>
       </c>
       <c r="N2">
-        <v>12.381565</v>
+        <v>10.670287</v>
       </c>
       <c r="O2">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="P2">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="Q2">
-        <v>45.90578308710334</v>
+        <v>86.63249526359212</v>
       </c>
       <c r="R2">
-        <v>413.1520477839301</v>
+        <v>779.6924573723292</v>
       </c>
       <c r="S2">
-        <v>0.01375134971169755</v>
+        <v>0.01605563205996926</v>
       </c>
       <c r="T2">
-        <v>0.01375134971169755</v>
+        <v>0.01605563205996926</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.122774</v>
+        <v>24.35712233333334</v>
       </c>
       <c r="H3">
-        <v>33.368322</v>
+        <v>73.07136700000001</v>
       </c>
       <c r="I3">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="J3">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>141.74704</v>
       </c>
       <c r="O3">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805706</v>
       </c>
       <c r="P3">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805704</v>
       </c>
       <c r="Q3">
-        <v>525.5400970296533</v>
+        <v>1150.849997889298</v>
       </c>
       <c r="R3">
-        <v>4729.86087326688</v>
+        <v>10357.64998100368</v>
       </c>
       <c r="S3">
-        <v>0.1574286544259939</v>
+        <v>0.2132874513899903</v>
       </c>
       <c r="T3">
-        <v>0.1574286544259939</v>
+        <v>0.2132874513899902</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.122774</v>
+        <v>24.35712233333334</v>
       </c>
       <c r="H4">
-        <v>33.368322</v>
+        <v>73.07136700000001</v>
       </c>
       <c r="I4">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="J4">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.92629833333334</v>
+        <v>24.53173066666666</v>
       </c>
       <c r="N4">
-        <v>41.77889500000001</v>
+        <v>73.595192</v>
       </c>
       <c r="O4">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921413</v>
       </c>
       <c r="P4">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921412</v>
       </c>
       <c r="Q4">
-        <v>154.8990690182434</v>
+        <v>597.5223648963849</v>
       </c>
       <c r="R4">
-        <v>1394.09162116419</v>
+        <v>5377.701284067464</v>
       </c>
       <c r="S4">
-        <v>0.04640093523825882</v>
+        <v>0.1107390386158117</v>
       </c>
       <c r="T4">
-        <v>0.04640093523825883</v>
+        <v>0.1107390386158116</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.122774</v>
+        <v>24.35712233333334</v>
       </c>
       <c r="H5">
-        <v>33.368322</v>
+        <v>73.07136700000001</v>
       </c>
       <c r="I5">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="J5">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.218847999999999</v>
+        <v>7.746355333333334</v>
       </c>
       <c r="N5">
-        <v>24.656544</v>
+        <v>23.239066</v>
       </c>
       <c r="O5">
-        <v>0.1117885923419141</v>
+        <v>0.09323537902477132</v>
       </c>
       <c r="P5">
-        <v>0.1117885923419141</v>
+        <v>0.0932353790247713</v>
       </c>
       <c r="Q5">
-        <v>91.41638884435199</v>
+        <v>188.6789244914691</v>
       </c>
       <c r="R5">
-        <v>822.7474995991679</v>
+        <v>1698.110320423222</v>
       </c>
       <c r="S5">
-        <v>0.02738432170940086</v>
+        <v>0.03496793414397772</v>
       </c>
       <c r="T5">
-        <v>0.02738432170940086</v>
+        <v>0.03496793414397771</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>54.662142</v>
       </c>
       <c r="I6">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302703</v>
       </c>
       <c r="J6">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302702</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.127188333333334</v>
+        <v>3.556762333333333</v>
       </c>
       <c r="N6">
-        <v>12.381565</v>
+        <v>10.670287</v>
       </c>
       <c r="O6">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="P6">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="Q6">
-        <v>75.20031824580335</v>
+        <v>64.80674924163934</v>
       </c>
       <c r="R6">
-        <v>676.8028642122301</v>
+        <v>583.260743174754</v>
       </c>
       <c r="S6">
-        <v>0.02252670154143413</v>
+        <v>0.01201065856016889</v>
       </c>
       <c r="T6">
-        <v>0.02252670154143413</v>
+        <v>0.01201065856016888</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>54.662142</v>
       </c>
       <c r="I7">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302703</v>
       </c>
       <c r="J7">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302702</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>141.74704</v>
       </c>
       <c r="O7">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805706</v>
       </c>
       <c r="P7">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805704</v>
       </c>
       <c r="Q7">
         <v>860.9107587288534</v>
@@ -883,10 +883,10 @@
         <v>7748.19682855968</v>
       </c>
       <c r="S7">
-        <v>0.2578909261035842</v>
+        <v>0.1595529060609711</v>
       </c>
       <c r="T7">
-        <v>0.2578909261035842</v>
+        <v>0.1595529060609711</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>54.662142</v>
       </c>
       <c r="I8">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302703</v>
       </c>
       <c r="J8">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302702</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.92629833333334</v>
+        <v>24.53173066666666</v>
       </c>
       <c r="N8">
-        <v>41.77889500000001</v>
+        <v>73.595192</v>
       </c>
       <c r="O8">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921413</v>
       </c>
       <c r="P8">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921412</v>
       </c>
       <c r="Q8">
-        <v>253.7470990103434</v>
+        <v>446.9856484023626</v>
       </c>
       <c r="R8">
-        <v>2283.723891093091</v>
+        <v>4022.870835621264</v>
       </c>
       <c r="S8">
-        <v>0.07601144915008035</v>
+        <v>0.08284001384237114</v>
       </c>
       <c r="T8">
-        <v>0.07601144915008036</v>
+        <v>0.08284001384237109</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>54.662142</v>
       </c>
       <c r="I9">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302703</v>
       </c>
       <c r="J9">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302702</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.218847999999999</v>
+        <v>7.746355333333334</v>
       </c>
       <c r="N9">
-        <v>24.656544</v>
+        <v>23.239066</v>
       </c>
       <c r="O9">
-        <v>0.1117885923419141</v>
+        <v>0.09323537902477132</v>
       </c>
       <c r="P9">
-        <v>0.1117885923419141</v>
+        <v>0.0932353790247713</v>
       </c>
       <c r="Q9">
-        <v>149.753278817472</v>
+        <v>141.1441250710413</v>
       </c>
       <c r="R9">
-        <v>1347.779509357248</v>
+        <v>1270.297125639372</v>
       </c>
       <c r="S9">
-        <v>0.04485948325039996</v>
+        <v>0.02615829236675918</v>
       </c>
       <c r="T9">
-        <v>0.04485948325039996</v>
+        <v>0.02615829236675917</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.943029</v>
+        <v>22.31748066666667</v>
       </c>
       <c r="H10">
-        <v>47.829087</v>
+        <v>66.952442</v>
       </c>
       <c r="I10">
-        <v>0.3511253812651703</v>
+        <v>0.3436437303202491</v>
       </c>
       <c r="J10">
-        <v>0.3511253812651703</v>
+        <v>0.343643730320249</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.127188333333334</v>
+        <v>3.556762333333333</v>
       </c>
       <c r="N10">
-        <v>12.381565</v>
+        <v>10.670287</v>
       </c>
       <c r="O10">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="P10">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="Q10">
-        <v>65.79988328679501</v>
+        <v>79.3779746100949</v>
       </c>
       <c r="R10">
-        <v>592.1989495811551</v>
+        <v>714.401771490854</v>
       </c>
       <c r="S10">
-        <v>0.01971074547075537</v>
+        <v>0.01471114909166038</v>
       </c>
       <c r="T10">
-        <v>0.01971074547075538</v>
+        <v>0.01471114909166038</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.943029</v>
+        <v>22.31748066666667</v>
       </c>
       <c r="H11">
-        <v>47.829087</v>
+        <v>66.952442</v>
       </c>
       <c r="I11">
-        <v>0.3511253812651703</v>
+        <v>0.3436437303202491</v>
       </c>
       <c r="J11">
-        <v>0.3511253812651703</v>
+        <v>0.343643730320249</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>141.74704</v>
       </c>
       <c r="O11">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805706</v>
       </c>
       <c r="P11">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805704</v>
       </c>
       <c r="Q11">
-        <v>753.29238979472</v>
+        <v>1054.478941585742</v>
       </c>
       <c r="R11">
-        <v>6779.63150815248</v>
+        <v>9490.310474271681</v>
       </c>
       <c r="S11">
-        <v>0.2256532051217258</v>
+        <v>0.1954269682475783</v>
       </c>
       <c r="T11">
-        <v>0.2256532051217258</v>
+        <v>0.1954269682475782</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.943029</v>
+        <v>22.31748066666667</v>
       </c>
       <c r="H12">
-        <v>47.829087</v>
+        <v>66.952442</v>
       </c>
       <c r="I12">
-        <v>0.3511253812651703</v>
+        <v>0.3436437303202491</v>
       </c>
       <c r="J12">
-        <v>0.3511253812651703</v>
+        <v>0.343643730320249</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.92629833333334</v>
+        <v>24.53173066666666</v>
       </c>
       <c r="N12">
-        <v>41.77889500000001</v>
+        <v>73.595192</v>
       </c>
       <c r="O12">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921413</v>
       </c>
       <c r="P12">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921412</v>
       </c>
       <c r="Q12">
-        <v>222.027378190985</v>
+        <v>547.4864248732071</v>
       </c>
       <c r="R12">
-        <v>1998.246403718865</v>
+        <v>4927.377823858864</v>
       </c>
       <c r="S12">
-        <v>0.0665096185655379</v>
+        <v>0.1014658595351157</v>
       </c>
       <c r="T12">
-        <v>0.06650961856553791</v>
+        <v>0.1014658595351157</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.943029</v>
+        <v>22.31748066666667</v>
       </c>
       <c r="H13">
-        <v>47.829087</v>
+        <v>66.952442</v>
       </c>
       <c r="I13">
-        <v>0.3511253812651703</v>
+        <v>0.3436437303202491</v>
       </c>
       <c r="J13">
-        <v>0.3511253812651703</v>
+        <v>0.343643730320249</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.218847999999999</v>
+        <v>7.746355333333334</v>
       </c>
       <c r="N13">
-        <v>24.656544</v>
+        <v>23.239066</v>
       </c>
       <c r="O13">
-        <v>0.1117885923419141</v>
+        <v>0.09323537902477132</v>
       </c>
       <c r="P13">
-        <v>0.1117885923419141</v>
+        <v>0.0932353790247713</v>
       </c>
       <c r="Q13">
-        <v>131.033332010592</v>
+        <v>172.8791353887969</v>
       </c>
       <c r="R13">
-        <v>1179.299988095328</v>
+        <v>1555.912218499172</v>
       </c>
       <c r="S13">
-        <v>0.03925181210715128</v>
+        <v>0.03203975344589472</v>
       </c>
       <c r="T13">
-        <v>0.03925181210715128</v>
+        <v>0.03203975344589471</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1189986666666667</v>
+        <v>0.04834033333333334</v>
       </c>
       <c r="H14">
-        <v>0.356996</v>
+        <v>0.145021</v>
       </c>
       <c r="I14">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318391</v>
       </c>
       <c r="J14">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318388</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.127188333333334</v>
+        <v>3.556762333333333</v>
       </c>
       <c r="N14">
-        <v>12.381565</v>
+        <v>10.670287</v>
       </c>
       <c r="O14">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="P14">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="Q14">
-        <v>0.4911299087488889</v>
+        <v>0.1719350767807778</v>
       </c>
       <c r="R14">
-        <v>4.42016917874</v>
+        <v>1.547415691027</v>
       </c>
       <c r="S14">
-        <v>0.0001471208783491473</v>
+        <v>3.186479071848762E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001471208783491474</v>
+        <v>3.18647907184876E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1189986666666667</v>
+        <v>0.04834033333333334</v>
       </c>
       <c r="H15">
-        <v>0.356996</v>
+        <v>0.145021</v>
       </c>
       <c r="I15">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318391</v>
       </c>
       <c r="J15">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318388</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>141.74704</v>
       </c>
       <c r="O15">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805706</v>
       </c>
       <c r="P15">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805704</v>
       </c>
       <c r="Q15">
-        <v>5.622569587982222</v>
+        <v>2.284033054204444</v>
       </c>
       <c r="R15">
-        <v>50.60312629184</v>
+        <v>20.55629748784</v>
       </c>
       <c r="S15">
-        <v>0.001684274082330604</v>
+        <v>0.0004233006820308669</v>
       </c>
       <c r="T15">
-        <v>0.001684274082330604</v>
+        <v>0.0004233006820308667</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1189986666666667</v>
+        <v>0.04834033333333334</v>
       </c>
       <c r="H16">
-        <v>0.356996</v>
+        <v>0.145021</v>
       </c>
       <c r="I16">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318391</v>
       </c>
       <c r="J16">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318388</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.92629833333334</v>
+        <v>24.53173066666666</v>
       </c>
       <c r="N16">
-        <v>41.77889500000001</v>
+        <v>73.595192</v>
       </c>
       <c r="O16">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921413</v>
       </c>
       <c r="P16">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921412</v>
       </c>
       <c r="Q16">
-        <v>1.657210933268889</v>
+        <v>1.185872037670222</v>
       </c>
       <c r="R16">
-        <v>14.91489839942</v>
+        <v>10.672848339032</v>
       </c>
       <c r="S16">
-        <v>0.0004964273683380736</v>
+        <v>0.0002197780988427878</v>
       </c>
       <c r="T16">
-        <v>0.0004964273683380736</v>
+        <v>0.0002197780988427877</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1189986666666667</v>
+        <v>0.04834033333333334</v>
       </c>
       <c r="H17">
-        <v>0.356996</v>
+        <v>0.145021</v>
       </c>
       <c r="I17">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318391</v>
       </c>
       <c r="J17">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318388</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.218847999999999</v>
+        <v>7.746355333333334</v>
       </c>
       <c r="N17">
-        <v>24.656544</v>
+        <v>23.239066</v>
       </c>
       <c r="O17">
-        <v>0.1117885923419141</v>
+        <v>0.09323537902477132</v>
       </c>
       <c r="P17">
-        <v>0.1117885923419141</v>
+        <v>0.0932353790247713</v>
       </c>
       <c r="Q17">
-        <v>0.9780319535359998</v>
+        <v>0.3744613989317778</v>
       </c>
       <c r="R17">
-        <v>8.802287581823999</v>
+        <v>3.370152590386001</v>
       </c>
       <c r="S17">
-        <v>0.0002929752749619615</v>
+        <v>6.939906813969682E-05</v>
       </c>
       <c r="T17">
-        <v>0.0002929752749619615</v>
+        <v>6.939906813969678E-05</v>
       </c>
     </row>
   </sheetData>
